--- a/KetQuaTest_SizesManagerServlet.xlsx
+++ b/KetQuaTest_SizesManagerServlet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -35,58 +35,79 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>SIZE_MGR_02</t>
+  </si>
+  <si>
+    <t>Hiện form sửa Size</t>
+  </si>
+  <si>
+    <t>Action='AddOrEdit', ID=1</t>
+  </si>
+  <si>
+    <t>ID=1</t>
+  </si>
+  <si>
+    <t>Forward SizesManager.jsp</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>SIZE_MGR_05</t>
+  </si>
+  <si>
+    <t>Lỗi: Trùng Size</t>
+  </si>
+  <si>
+    <t>Label='S' (đã có)</t>
+  </si>
+  <si>
+    <t>Service returns Error</t>
+  </si>
+  <si>
+    <t>Báo lỗi &amp; Forward lại</t>
+  </si>
+  <si>
     <t>SIZE_MGR_03</t>
   </si>
   <si>
-    <t>Lưu Size mới</t>
-  </si>
-  <si>
-    <t>1. Action='SaveOrUpdate'
-2. Label='XL'</t>
-  </si>
-  <si>
-    <t>Label='XL'</t>
-  </si>
-  <si>
-    <t>Call Service Save -&gt; Redirect</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>SIZE_MGR_02</t>
-  </si>
-  <si>
-    <t>Hiện form sửa Size</t>
-  </si>
-  <si>
-    <t>1. Action='AddOrEdit', ID=1
-2. Service getById</t>
-  </si>
-  <si>
-    <t>ID=1</t>
-  </si>
-  <si>
-    <t>Forward SizesManager.jsp</t>
+    <t>Lưu Size mới thành công</t>
+  </si>
+  <si>
+    <t>Action='SaveOrUpdate', Label='XL'</t>
+  </si>
+  <si>
+    <t>Service returns SUCCESS</t>
+  </si>
+  <si>
+    <t>Redirect List</t>
+  </si>
+  <si>
+    <t>SIZE_MGR_06</t>
+  </si>
+  <si>
+    <t>Xóa Size</t>
+  </si>
+  <si>
+    <t>Action='Delete', ID=5</t>
+  </si>
+  <si>
+    <t>ID=5</t>
+  </si>
+  <si>
+    <t>Call Service Delete -&gt; Redirect</t>
   </si>
   <si>
     <t>SIZE_MGR_04</t>
   </si>
   <si>
-    <t>Xóa Size</t>
-  </si>
-  <si>
-    <t>1. Action='Delete'
-2. ID=5</t>
-  </si>
-  <si>
-    <t>ID=5</t>
-  </si>
-  <si>
-    <t>Call Service Delete -&gt; Redirect</t>
+    <t>Lỗi: Tên Size rỗng</t>
+  </si>
+  <si>
+    <t>Label=''</t>
   </si>
   <si>
     <t>SIZE_MGR_01</t>
@@ -95,8 +116,7 @@
     <t>Xem danh sách Size</t>
   </si>
   <si>
-    <t>1. Action='List'
-2. Service trả list</t>
+    <t>Action='List'</t>
   </si>
   <si>
     <t>List size=2</t>
@@ -180,16 +200,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.5234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.4765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.1015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.98828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="31.765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.83203125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
@@ -310,6 +330,52 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/KetQuaTest_SizesManagerServlet.xlsx
+++ b/KetQuaTest_SizesManagerServlet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -41,12 +41,12 @@
     <t>Hiện form sửa Size</t>
   </si>
   <si>
+    <t>ID=1</t>
+  </si>
+  <si>
     <t>Action='AddOrEdit', ID=1</t>
   </si>
   <si>
-    <t>ID=1</t>
-  </si>
-  <si>
     <t>Forward SizesManager.jsp</t>
   </si>
   <si>
@@ -56,18 +56,33 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>SIZE_MGR_09</t>
+  </si>
+  <si>
+    <t>Lỗi hệ thống (500)</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>Service ném RuntimeException</t>
+  </si>
+  <si>
+    <t>Gửi lỗi 500</t>
+  </si>
+  <si>
     <t>SIZE_MGR_05</t>
   </si>
   <si>
     <t>Lỗi: Trùng Size</t>
   </si>
   <si>
+    <t>Service returns Error</t>
+  </si>
+  <si>
     <t>Label='S' (đã có)</t>
   </si>
   <si>
-    <t>Service returns Error</t>
-  </si>
-  <si>
     <t>Báo lỗi &amp; Forward lại</t>
   </si>
   <si>
@@ -77,30 +92,60 @@
     <t>Lưu Size mới thành công</t>
   </si>
   <si>
+    <t>Service returns SUCCESS</t>
+  </si>
+  <si>
     <t>Action='SaveOrUpdate', Label='XL'</t>
   </si>
   <si>
-    <t>Service returns SUCCESS</t>
-  </si>
-  <si>
     <t>Redirect List</t>
   </si>
   <si>
+    <t>SIZE_MGR_08</t>
+  </si>
+  <si>
+    <t>Xóa ID rác</t>
+  </si>
+  <si>
+    <t>ID='abc'</t>
+  </si>
+  <si>
+    <t>Action='Delete', ID='abc'</t>
+  </si>
+  <si>
+    <t>Không gọi delete, Redirect List</t>
+  </si>
+  <si>
     <t>SIZE_MGR_06</t>
   </si>
   <si>
     <t>Xóa Size</t>
   </si>
   <si>
+    <t>ID=5</t>
+  </si>
+  <si>
     <t>Action='Delete', ID=5</t>
   </si>
   <si>
-    <t>ID=5</t>
-  </si>
-  <si>
     <t>Call Service Delete -&gt; Redirect</t>
   </si>
   <si>
+    <t>SIZE_MGR_07</t>
+  </si>
+  <si>
+    <t>Action Null -&gt; Mặc định List</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Action=null</t>
+  </si>
+  <si>
+    <t>Forward View-sizes.jsp</t>
+  </si>
+  <si>
     <t>SIZE_MGR_04</t>
   </si>
   <si>
@@ -116,13 +161,10 @@
     <t>Xem danh sách Size</t>
   </si>
   <si>
+    <t>List size=2</t>
+  </si>
+  <si>
     <t>Action='List'</t>
-  </si>
-  <si>
-    <t>List size=2</t>
-  </si>
-  <si>
-    <t>Forward View-sizes.jsp</t>
   </si>
 </sst>
 </file>
@@ -200,17 +242,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="31.765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.83203125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.5625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.83203125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="31.765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="28.11328125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -341,10 +383,10 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -355,24 +397,93 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>13</v>
       </c>
     </row>
